--- a/data/input/absenteeism_data_49.xlsx
+++ b/data/input/absenteeism_data_49.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52263</v>
+        <v>30876</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Lucca Almeida</t>
+          <t>Antônio Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>3860.36</v>
+        <v>6832.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70366</v>
+        <v>31081</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amanda Silva</t>
+          <t>Lucca Cavalcanti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>6129.06</v>
+        <v>5083.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67991</v>
+        <v>1970</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ian Peixoto</t>
+          <t>Ana Carolina Nogueira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>10469.68</v>
+        <v>7826.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86743</v>
+        <v>62356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laura Cardoso</t>
+          <t>Srta. Sofia Moreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,147 +577,147 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>11436.88</v>
+        <v>3523.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84932</v>
+        <v>81605</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Enrico Porto</t>
+          <t>Lavínia da Cruz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>9200.530000000001</v>
+        <v>4665.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80652</v>
+        <v>23157</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clarice Santos</t>
+          <t>Bárbara Viana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G7" t="n">
-        <v>3835.08</v>
+        <v>2617.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51237</v>
+        <v>97289</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Paulo Moraes</t>
+          <t>Lara Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>8656.030000000001</v>
+        <v>12297.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80806</v>
+        <v>93001</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Henrique da Rocha</t>
+          <t>Lívia Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45091</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>9084.110000000001</v>
+        <v>8301.610000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32143</v>
+        <v>85929</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Maria Vitória Martins</t>
+          <t>Sr. Cauã Gomes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>3605.29</v>
+        <v>3789.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7325</v>
+        <v>29132</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucas Mendes</t>
+          <t>Manuela Lima</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>3377.52</v>
+        <v>5797.19</v>
       </c>
     </row>
   </sheetData>
